--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/ColorW1D1_Evaluation.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/ColorW1D1_Evaluation.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="520" windowWidth="24520" windowHeight="16200" activeTab="3"/>
+    <workbookView xWindow="15900" yWindow="460" windowWidth="24520" windowHeight="16200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="能力-开始圆圈" sheetId="3" r:id="rId1"/>
     <sheet name="能力-学习中心" sheetId="4" r:id="rId2"/>
     <sheet name="能力-指导活动" sheetId="5" r:id="rId3"/>
     <sheet name="能力-结束圆圈" sheetId="6" r:id="rId4"/>
+    <sheet name="教学目的" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="113">
   <si>
     <t>Indicators</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,6 +1087,209 @@
     </rPh>
     <rPh sb="54" eb="55">
       <t>xiang fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本科学概念</t>
+    <rPh sb="0" eb="1">
+      <t>ji ben ke xue gai nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊身边有许多不同的颜色</t>
+    <rPh sb="1" eb="2">
+      <t>shen bian you xu duo bu tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊物体可以用颜色分类</t>
+    <rPh sb="1" eb="2">
+      <t>wu ti</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke yi yong yan se fen lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <rPh sb="0" eb="1">
+      <t>neng li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊观察、描述、按颜色排列或分类</t>
+    <rPh sb="1" eb="2">
+      <t>guan cha</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an yan se</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pai lie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huo fen lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊做简单的实验，讨论前因后果，并分享想法</t>
+    <rPh sb="1" eb="2">
+      <t>zuo jian dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tao lun qian yin huo guo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian yin hou guo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fen xiang xiang fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇</t>
+    <rPh sb="0" eb="1">
+      <t>ci hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊描述</t>
+    <rPh sb="1" eb="2">
+      <t>miao shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊对比</t>
+    <rPh sb="1" eb="2">
+      <t>dui bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊一致</t>
+    <rPh sb="1" eb="2">
+      <t>yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学语言</t>
+    <rPh sb="0" eb="1">
+      <t>ke xue yu yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊问问题</t>
+    <rPh sb="1" eb="2">
+      <t>wen wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊做对比和预测</t>
+    <rPh sb="1" eb="2">
+      <t>zuo dui bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊分享、讨论结果</t>
+    <rPh sb="1" eb="2">
+      <t>fen xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tao lun jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊学习新词汇来描绘所见所做</t>
+    <rPh sb="1" eb="2">
+      <t>xue xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>miao hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>suo jian suo zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读中心</t>
+    <rPh sb="0" eb="1">
+      <t>yue du zhong xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘画</t>
+    <rPh sb="0" eb="1">
+      <t>hui hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用色素</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong se s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色整理</t>
+    <rPh sb="0" eb="1">
+      <t>yan se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1168,7 +1372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1427,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1540,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="86" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="86" zoomScalePageLayoutView="86" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2187,7 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="173" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2920,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3104,4 +3311,173 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>